--- a/CVX_Kenya/Optimization/ shading_C_planting.xlsx
+++ b/CVX_Kenya/Optimization/ shading_C_planting.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F62784-2EB0-4EFB-9128-BE6CBAC9A799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -145,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,10 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -209,6 +218,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -255,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +304,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +356,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -587,7 +645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,436 +731,436 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="H4">
-        <v>0.974026127718389</v>
+      <c r="H4" s="2">
+        <v>0.97402612771838903</v>
       </c>
       <c r="I4">
-        <v>0.6107773305848241</v>
+        <v>0.61077733058482409</v>
       </c>
       <c r="J4">
-        <v>0.6270646271220071</v>
+        <v>0.62706462712200706</v>
       </c>
       <c r="K4">
         <v>1.594731957038666</v>
       </c>
       <c r="L4">
-        <v>0.002327894559130073</v>
+        <v>2.327894559130073E-3</v>
       </c>
       <c r="M4">
-        <v>0.0004894310441159178</v>
+        <v>4.8943104411591776E-4</v>
       </c>
       <c r="N4">
-        <v>0.3085486581549048</v>
+        <v>0.30854865815490479</v>
       </c>
       <c r="O4">
-        <v>0.05422328365966678</v>
+        <v>5.4223283659666777E-2</v>
       </c>
       <c r="P4">
-        <v>0.05236644484102726</v>
+        <v>5.236644484102726E-2</v>
       </c>
       <c r="Q4">
-        <v>0.03071292489767075</v>
+        <v>3.0712924897670749E-2</v>
       </c>
       <c r="R4">
-        <v>0.0006020232394803315</v>
+        <v>6.0202323948033154E-4</v>
       </c>
       <c r="S4">
-        <v>0.0008947084425017238</v>
+        <v>8.9470844250172377E-4</v>
       </c>
       <c r="T4">
-        <v>0.0001899497583508492</v>
+        <v>1.8994975835084921E-4</v>
       </c>
       <c r="U4">
-        <v>0.06322787003591657</v>
+        <v>6.3227870035916567E-2</v>
       </c>
       <c r="V4">
-        <v>0.0946809290908277</v>
+        <v>9.4680929090827703E-2</v>
       </c>
       <c r="W4">
-        <v>0.003985211253166199</v>
+        <v>3.9852112531661987E-3</v>
       </c>
       <c r="X4">
-        <v>0.04715991442208178</v>
+        <v>4.7159914422081783E-2</v>
       </c>
       <c r="Y4">
-        <v>0.01068332932482008</v>
+        <v>1.0683329324820081E-2</v>
       </c>
       <c r="Z4">
-        <v>6.171163112856448</v>
+        <v>6.1711631128564477</v>
       </c>
       <c r="AA4">
-        <v>1.147693543229252</v>
+        <v>1.1476935432292521</v>
       </c>
       <c r="AB4">
-        <v>0.7089394270442426</v>
+        <v>0.70893942704424262</v>
       </c>
       <c r="AC4">
         <v>1.051314108073711</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="H5">
-        <v>0.9805196365341544</v>
+      <c r="H5" s="2">
+        <v>0.98051963653415442</v>
       </c>
       <c r="I5">
-        <v>0.6107773305848241</v>
+        <v>0.61077733058482409</v>
       </c>
       <c r="J5">
-        <v>0.6229118804226507</v>
+        <v>0.62291188042265067</v>
       </c>
       <c r="K5">
         <v>1.6053635055435</v>
       </c>
       <c r="L5">
-        <v>0.002327894559130073</v>
+        <v>2.327894559130073E-3</v>
       </c>
       <c r="M5">
-        <v>0.0004894310441159178</v>
+        <v>4.8943104411591776E-4</v>
       </c>
       <c r="N5">
-        <v>0.3085486581549048</v>
+        <v>0.30854865815490479</v>
       </c>
       <c r="O5">
-        <v>0.05422328365966678</v>
+        <v>5.4223283659666777E-2</v>
       </c>
       <c r="P5">
-        <v>0.05236644484102726</v>
+        <v>5.236644484102726E-2</v>
       </c>
       <c r="Q5">
-        <v>0.03071292489767075</v>
+        <v>3.0712924897670749E-2</v>
       </c>
       <c r="R5">
-        <v>0.0006060367304598913</v>
+        <v>6.0603673045989126E-4</v>
       </c>
       <c r="S5">
-        <v>0.0009006731615954777</v>
+        <v>9.0067316159547772E-4</v>
       </c>
       <c r="T5">
-        <v>0.0001912162406370044</v>
+        <v>1.912162406370044E-4</v>
       </c>
       <c r="U5">
-        <v>0.06364938919432461</v>
+        <v>6.3649389194324613E-2</v>
       </c>
       <c r="V5">
-        <v>0.09531213529407978</v>
+        <v>9.5312135294079781E-2</v>
       </c>
       <c r="W5">
-        <v>0.004011779790744185</v>
+        <v>4.0117797907441846E-3</v>
       </c>
       <c r="X5">
-        <v>0.04716392791306134</v>
+        <v>4.7163927913061343E-2</v>
       </c>
       <c r="Y5">
-        <v>0.01068929404391383</v>
+        <v>1.0689294043913829E-2</v>
       </c>
       <c r="Z5">
-        <v>6.171164379338734</v>
+        <v>6.1711643793387339</v>
       </c>
       <c r="AA5">
-        <v>1.14811506238766</v>
+        <v>1.1481150623876599</v>
       </c>
       <c r="AB5">
         <v>0.7095706332474947</v>
       </c>
       <c r="AC5">
-        <v>1.051340676611289</v>
+        <v>1.0513406766112889</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="H6">
-        <v>0.9870131434872746</v>
+      <c r="H6" s="2">
+        <v>0.98701314348727465</v>
       </c>
       <c r="I6">
-        <v>0.6107773305848241</v>
+        <v>0.61077733058482409</v>
       </c>
       <c r="J6">
-        <v>0.6188137763058053</v>
+        <v>0.61881377630580525</v>
       </c>
       <c r="K6">
-        <v>1.615995050998703</v>
+        <v>1.6159950509987031</v>
       </c>
       <c r="L6">
-        <v>0.002327894559130073</v>
+        <v>2.327894559130073E-3</v>
       </c>
       <c r="M6">
-        <v>0.0004894310441159178</v>
+        <v>4.8943104411591776E-4</v>
       </c>
       <c r="N6">
-        <v>0.3085486581549048</v>
+        <v>0.30854865815490479</v>
       </c>
       <c r="O6">
-        <v>0.05422328365966678</v>
+        <v>5.4223283659666777E-2</v>
       </c>
       <c r="P6">
-        <v>0.05236644484102726</v>
+        <v>5.236644484102726E-2</v>
       </c>
       <c r="Q6">
-        <v>0.03071292489767075</v>
+        <v>3.0712924897670749E-2</v>
       </c>
       <c r="R6">
-        <v>0.0006100502068875358</v>
+        <v>6.1005020688753575E-4</v>
       </c>
       <c r="S6">
-        <v>0.0009066378879651893</v>
+        <v>9.0663788796518929E-4</v>
       </c>
       <c r="T6">
-        <v>0.0001924826065078378</v>
+        <v>1.924826065078378E-4</v>
       </c>
       <c r="U6">
-        <v>0.06407090835273266</v>
+        <v>6.4070908352732658E-2</v>
       </c>
       <c r="V6">
-        <v>0.09594334149733186</v>
+        <v>9.5943341497331858E-2</v>
       </c>
       <c r="W6">
-        <v>0.004038347629830241</v>
+        <v>4.0383476298302412E-3</v>
       </c>
       <c r="X6">
-        <v>0.04716794138948899</v>
+        <v>4.7167941389488988E-2</v>
       </c>
       <c r="Y6">
-        <v>0.01069525877028354</v>
+        <v>1.0695258770283539E-2</v>
       </c>
       <c r="Z6">
-        <v>6.171165645704605</v>
+        <v>6.1711656457046047</v>
       </c>
       <c r="AA6">
         <v>1.148536581546068</v>
       </c>
       <c r="AB6">
-        <v>0.7102018394507468</v>
+        <v>0.71020183945074677</v>
       </c>
       <c r="AC6">
         <v>1.051367244450375</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="H7">
-        <v>0.9935066504403949</v>
+      <c r="H7" s="2">
+        <v>0.99350665044039488</v>
       </c>
       <c r="I7">
-        <v>0.6107773305848241</v>
+        <v>0.61077733058482409</v>
       </c>
       <c r="J7">
         <v>0.6147692421727452</v>
       </c>
       <c r="K7">
-        <v>1.626626596453906</v>
+        <v>1.6266265964539059</v>
       </c>
       <c r="L7">
-        <v>0.002327894559130073</v>
+        <v>2.327894559130073E-3</v>
       </c>
       <c r="M7">
-        <v>0.0004894310441159178</v>
+        <v>4.8943104411591776E-4</v>
       </c>
       <c r="N7">
-        <v>0.3085486581549048</v>
+        <v>0.30854865815490479</v>
       </c>
       <c r="O7">
-        <v>0.05422328365966678</v>
+        <v>5.4223283659666777E-2</v>
       </c>
       <c r="P7">
-        <v>0.05236644484102726</v>
+        <v>5.236644484102726E-2</v>
       </c>
       <c r="Q7">
-        <v>0.03071292489767075</v>
+        <v>3.0712924897670749E-2</v>
       </c>
       <c r="R7">
-        <v>0.0006140637124190107</v>
+        <v>6.140637124190107E-4</v>
       </c>
       <c r="S7">
-        <v>0.0009126026088779327</v>
+        <v>9.1260260887793265E-4</v>
       </c>
       <c r="T7">
-        <v>0.0001937487395480275</v>
+        <v>1.9374873954802749E-4</v>
       </c>
       <c r="U7">
-        <v>0.06449242774397135</v>
+        <v>6.4492427743971348E-2</v>
       </c>
       <c r="V7">
-        <v>0.09657454770058393</v>
+        <v>9.6574547700583935E-2</v>
       </c>
       <c r="W7">
-        <v>0.004064915468916297</v>
+        <v>4.064915468916297E-3</v>
       </c>
       <c r="X7">
-        <v>0.04717195489502046</v>
+        <v>4.7171954895020463E-2</v>
       </c>
       <c r="Y7">
-        <v>0.01070122349119629</v>
+        <v>1.070122349119629E-2</v>
       </c>
       <c r="Z7">
-        <v>6.171166911837645</v>
+        <v>6.1711669118376449</v>
       </c>
       <c r="AA7">
-        <v>1.148958100937307</v>
+        <v>1.1489581009373071</v>
       </c>
       <c r="AB7">
-        <v>0.7108330456539989</v>
+        <v>0.71083304565399885</v>
       </c>
       <c r="AC7">
         <v>1.051393812289461</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>1.00000015925616</v>
       </c>
       <c r="I8">
-        <v>0.6107773305848241</v>
+        <v>0.61077733058482409</v>
       </c>
       <c r="J8">
-        <v>0.6107772333147872</v>
+        <v>0.61077723331478717</v>
       </c>
       <c r="K8">
         <v>1.63725814495874</v>
       </c>
       <c r="L8">
-        <v>0.002327894559130073</v>
+        <v>2.327894559130073E-3</v>
       </c>
       <c r="M8">
-        <v>0.0004894310441159178</v>
+        <v>4.8943104411591776E-4</v>
       </c>
       <c r="N8">
-        <v>0.3085486581549048</v>
+        <v>0.30854865815490479</v>
       </c>
       <c r="O8">
-        <v>0.05422328365966678</v>
+        <v>5.4223283659666777E-2</v>
       </c>
       <c r="P8">
-        <v>0.05236644484102726</v>
+        <v>5.236644484102726E-2</v>
       </c>
       <c r="Q8">
-        <v>0.03071292489767075</v>
+        <v>3.0712924897670749E-2</v>
       </c>
       <c r="R8">
-        <v>0.0006180771888466552</v>
+        <v>6.1807718884665519E-4</v>
       </c>
       <c r="S8">
-        <v>0.000918567329790676</v>
+        <v>9.1856732979067601E-4</v>
       </c>
       <c r="T8">
-        <v>0.0001950151054188609</v>
+        <v>1.9501510541886091E-4</v>
       </c>
       <c r="U8">
-        <v>0.06491394690237939</v>
+        <v>6.4913946902379394E-2</v>
       </c>
       <c r="V8">
-        <v>0.09720575390383601</v>
+        <v>9.7205753903836012E-2</v>
       </c>
       <c r="W8">
-        <v>0.00409148377366364</v>
+        <v>4.09148377366364E-3</v>
       </c>
       <c r="X8">
-        <v>0.04717596837144811</v>
+        <v>4.7175968371448107E-2</v>
       </c>
       <c r="Y8">
-        <v>0.01070718821210903</v>
+        <v>1.0707188212109029E-2</v>
       </c>
       <c r="Z8">
-        <v>6.171168178203516</v>
+        <v>6.1711681782035157</v>
       </c>
       <c r="AA8">
-        <v>1.149379620095715</v>
+        <v>1.1493796200957149</v>
       </c>
       <c r="AB8">
-        <v>0.7114642518572509</v>
+        <v>0.71146425185725093</v>
       </c>
       <c r="AC8">
-        <v>1.051420380594209</v>
+        <v>1.0514203805942091</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>1.00649366620928</v>
       </c>
       <c r="I9">
-        <v>0.6107773305848241</v>
+        <v>0.61077733058482409</v>
       </c>
       <c r="J9">
-        <v>0.6068367353817257</v>
+        <v>0.60683673538172567</v>
       </c>
       <c r="K9">
-        <v>1.647889690413943</v>
+        <v>1.6478896904139431</v>
       </c>
       <c r="L9">
-        <v>0.002327894559130073</v>
+        <v>2.327894559130073E-3</v>
       </c>
       <c r="M9">
-        <v>0.0004894310441159178</v>
+        <v>4.8943104411591776E-4</v>
       </c>
       <c r="N9">
-        <v>0.3085486581549048</v>
+        <v>0.30854865815490479</v>
       </c>
       <c r="O9">
-        <v>0.05422328365966678</v>
+        <v>5.4223283659666777E-2</v>
       </c>
       <c r="P9">
-        <v>0.05236644484102726</v>
+        <v>5.236644484102726E-2</v>
       </c>
       <c r="Q9">
-        <v>0.03071292489767075</v>
+        <v>3.0712924897670749E-2</v>
       </c>
       <c r="R9">
-        <v>0.0006220906652742997</v>
+        <v>6.2209066527429968E-4</v>
       </c>
       <c r="S9">
-        <v>0.0009245320543413982</v>
+        <v>9.2453205434139818E-4</v>
       </c>
       <c r="T9">
-        <v>0.0001962814712896943</v>
+        <v>1.9628147128969431E-4</v>
       </c>
       <c r="U9">
-        <v>0.0653354658279568</v>
+        <v>6.5335465827956796E-2</v>
       </c>
       <c r="V9">
-        <v>0.09783696010708809</v>
+        <v>9.7836960107088089E-2</v>
       </c>
       <c r="W9">
-        <v>0.004118051612749696</v>
+        <v>4.1180516127496958E-3</v>
       </c>
       <c r="X9">
-        <v>0.04717998184787575</v>
+        <v>4.7179981847875752E-2</v>
       </c>
       <c r="Y9">
-        <v>0.01071315293665975</v>
+        <v>1.071315293665975E-2</v>
       </c>
       <c r="Z9">
-        <v>6.171169444569387</v>
+        <v>6.1711694445693874</v>
       </c>
       <c r="AA9">
-        <v>1.149801139021292</v>
+        <v>1.1498011390212921</v>
       </c>
       <c r="AB9">
-        <v>0.712095458060503</v>
+        <v>0.71209545806050301</v>
       </c>
       <c r="AC9">
-        <v>1.051446948433295</v>
+        <v>1.0514469484332949</v>
       </c>
     </row>
   </sheetData>
